--- a/humor/humor.xlsx
+++ b/humor/humor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="撩妹" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,6 +420,646 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>你知道你和仙女的区别吗？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仙女在天上飞，你在我心里飞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上跟她出去走，我都不敢牵她手。说起话来好害臊，都不敢上前要抱抱。尽管夜色有点美，我始终不敢亲她嘴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你知道吗？我们有一个共同的好友哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他的名字叫丘比特</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你很过分耶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过分美丽了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊啊，我不听我不听，王八念经，女人的嘴骗人的鬼，给我拖出去，斩啦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁华落尽，尽是沧桑。潮起潮落，做我自己。风雨沧桑，我还是我。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你应该很孤独吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为你一个人住在我心里都没有邻居</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你知道为什么白雪公主要被亲一下才醒来吗？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你闭上眼睛试试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我可以帮你完成人生中的一件大事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我能让你当妈妈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女人好比朝天椒，辣得我吃不消。男人好比洋葱，要了解就得一层层把他剥开，边剥边流泪，等剥到最后，你发现原来他没有心的。其实，你剥的就是他的心，从一开始他就把整个心交给了你，只是你不愿相信罢了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间是个好东西，见证了人心，验证了人性，懂得了真的，明白了假的。生活告诉我们，没有过不去的经历，只有走不出的自己。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随便</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>听你的、明白了吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我说明白了吗、我不会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我可以学、还行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挺不错的、让你久等了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感谢您的耐心等候、没空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有急事、我不喝酒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我擅长倒酒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广东女人，那么凶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你知道我为什么追你不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我追你是为民除害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还有一点是因为爱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>什么东西越洗越脏，洗了没人吃，没洗有人吃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水、什么东西越热越爱出来呢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汗、黑人和白人生下的婴儿，牙齿是什么颜色呀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生下来婴儿没有牙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你知道你在我心里是什么吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我未来孩子妈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>今天适合和你聊天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月亮告诉我的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我去问佛，问我跟韩信是否有缘？佛说：“你跟韩信无缘”。我说:“求缘”。佛说:“那你要等上千年，在这一千年里，你可知韩信，而韩信却不知有你，你可愿等啊？我答：“国服韩信请战”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我觉得我好花心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为你每一个样子我都喜欢</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>你知道我为什么还没有女朋友吗</t>
     </r>
     <r>
@@ -445,643 +1085,271 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我觉得我好花心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>因为你每一个样子我都喜欢</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你知道你和仙女的区别吗？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>仙女在天上飞，你在我心里飞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>套路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>套路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上跟她出去走，我都不敢牵她手。说起话来好害臊，都不敢上前要抱抱。尽管夜色有点美，我始终不敢亲她嘴。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你知道吗？我们有一个共同的好友哦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>他的名字叫丘比特</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搞笑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜜语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你很过分耶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>过分美丽了</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊啊啊，我不听我不听，王八念经，女人的嘴骗人的鬼，给我拖出去，斩啦。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>繁华落尽，尽是沧桑。潮起潮落，做我自己。风雨沧桑，我还是我。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你应该很孤独吧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>因为你一个人住在我心里都没有邻居</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你知道为什么白雪公主要被亲一下才醒来吗？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你闭上眼睛试试</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我可以帮你完成人生中的一件大事</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我能让你当妈妈</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女人好比朝天椒，辣得我吃不消。男人好比洋葱，要了解就得一层层把他剥开，边剥边流泪，等剥到最后，你发现原来他没有心的。其实，你剥的就是他的心，从一开始他就把整个心交给了你，只是你不愿相信罢了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间是个好东西，见证了人心，验证了人性，懂得了真的，明白了假的。生活告诉我们，没有过不去的经历，只有走不出的自己。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随便</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>听你的、明白了吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我说明白了吗、我不会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我可以学、还行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挺不错的、让你久等了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>感谢您的耐心等候、没空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有急事、我不喝酒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我擅长倒酒</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>广东女人，那么凶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你知道我为什么追你不</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我追你是为民除害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>还有一点是因为爱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>什么东西越洗越脏，洗了没人吃，没洗有人吃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水、什么东西越热越爱出来呢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>汗、黑人和白人生下的婴儿，牙齿是什么颜色呀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生下来婴儿没有牙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你知道你在我心里是什么吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我未来孩子妈</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>今天适合和你聊天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月亮告诉我的</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我去问佛，问我跟韩信是否有缘？佛说：“你跟韩信无缘”。我说:“求缘”。佛说:“那你要等上千年，在这一千年里，你可知韩信，而韩信却不知有你，你可愿等啊？我答：“国服韩信请战”。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问个问题，你跑步快吗？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>那我应该可以追得到你</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你知道你像什么吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>像地球一样吸引着我</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我一看到你就有食欲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为你秀色可餐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我想跟你借一样东西</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去你心里的地图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你知道酸甜怎么区分的吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>见到你是甜的，见不到你是酸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我可以亲口对你说晚安吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>那先亲口再说吧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你的另一半，你会叫他老公还是男朋友</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>哎，我在呢</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美女，您好，我喜欢上一个女孩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>那个女孩说然后呢，我该怎么说呢</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1456,7 +1724,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1464,10 +1732,10 @@
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -1475,36 +1743,36 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -1512,15 +1780,15 @@
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>12</v>
@@ -1528,23 +1796,23 @@
     </row>
     <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -1552,23 +1820,23 @@
     </row>
     <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
@@ -1576,15 +1844,15 @@
     </row>
     <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
@@ -1592,7 +1860,7 @@
     </row>
     <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>18</v>
@@ -1600,7 +1868,7 @@
     </row>
     <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>19</v>
@@ -1608,7 +1876,7 @@
     </row>
     <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>20</v>
@@ -1616,7 +1884,7 @@
     </row>
     <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>21</v>
@@ -1624,7 +1892,7 @@
     </row>
     <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>22</v>
@@ -1632,7 +1900,7 @@
     </row>
     <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>23</v>
@@ -1640,7 +1908,7 @@
     </row>
     <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>24</v>
@@ -1648,18 +1916,82 @@
     </row>
     <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +2018,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1737,7 +2069,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -1750,18 +2082,18 @@
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -1769,7 +2101,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1806,7 +2138,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +2151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1831,7 +2163,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1842,7 +2174,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/humor/humor.xlsx
+++ b/humor/humor.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1350,6 +1350,950 @@
       </rPr>
       <t>那个女孩说然后呢，我该怎么说呢</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女:干嘛呢?=男: 在想你啊=女：呸，渣男=男：怎么就是渣男了=女：因为一般这样说都是渣男=男：那你重新问=女：干嘛呢=男：在刨你家祖坟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再见语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢你的鼓励，我会加油的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不过输给叔，你一点都不冤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你他喵就是个人才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月小溪，认识你是我这辈子最倒霉的事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我叫月小溪，有空一起喝茶哈=撒哟哪啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后对不起的坏事少干点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我看你骨骼惊奇，想收你为徒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哄女孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这哪个仙女从天上下来了，哦，这瓜子脸，这樱桃小嘴，还有这两双大眼睛，好像那什么，闪耀的星河。奶茶，我知道平时和你最好了，现在她生气了，我只有拜托你了，请一定要哄好她啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩子:爸爸，老师骂我了=爸爸: 为啥呀=孩子：老师说三加二等于几，我说等于五=爸爸：那不对了么=孩子：老师说二加三等于几=爸爸：你老师净说废话=孩子：我也是这么说的呀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问：你知道男人单身叫什么？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>答：我知道啊，单身狗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问：那女人单身呢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>答：狗不理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气预报，今夜到明天上午，有点想你，预计下午转为持续想你，受此低情绪影响，傍晚将转为大到爆想，心情降低五度，预计此类天气，将持续到见你为止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：你帮我杀了她</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：女人最动人之处，就是可以对爱过的男人，恨到不能自拔。可是，你真想他死吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：不惜任何代价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸：你居然考了61分=女儿：爸，其实…=爸爸:不用考70=女儿:你听我说=爸爸：啥也不用说=女儿:哎呀，又整这出=爸爸：爸=女儿:哎呀，这又联系我爷爷了=爸爸：爸爸！你看见了吗？咱们老猪家要出状元了，你大孙子佩奇他终于及格了=女儿:爷爷，您先把情绪往回收一收，我是你孙子佩奇，你儿子麦当劳把试卷拿反了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：分手吧，渣男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>别闹了，莉莉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：我不叫莉莉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：啊，别闹了，琪琪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：我也不叫琪琪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：妮妮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：我叫雪梨，这次真的完了，再见了卢卡斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：我不叫卢卡斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：哦，再见吧，路易斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：我也不叫路易斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>what</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？杰瑞，凯文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：滚</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一世，我为你挡了一箭，你说来生娶我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：第一世，我平息战乱，你却不知我此后孤独终生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：第二世，我等了你半生，你却娶了别人家姑娘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：第二世，你不知，我觉得那姑娘笑起来像你，我以为那是你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：第三世，我，你高攀不起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：第三世，这一世，我等你一生，你却化身成魔，罢了，这三世，终究只是孽缘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌唱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女儿：我的妈妈扇我一巴掌，说我一在家就闲得慌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>妈妈：难怪成绩一直往下降，没个人样还整天去浪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女儿：我的老师针对我拖堂，说我学会早恋不像样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师：等你上了大学就解放，我为你着想</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌唱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜里突然肚子有点饿，想起了炸鸡，薯条和可乐，某些人还在傍边疯狂打游戏，他装作听不懂，哎哟，我嘴巴失控，口水流动，你居然还敢无动于衷，我看你是吃饱撑着活腻了，还不赶快滚去卖吃的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务员：先生，您好，很高兴为你服务=顾客：来，你跟我说说，你有多高兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐士：修车？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刺客：身为武林中人，你竟然在这里做这种工作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐士：竟然被他知道我的身份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刺客：今晚决战大鸡村山头，谁输谁手，大鸡村只能留下一个修理店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐士：好快的身手，看来今晚又是一场恶战</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大师：我一眼就看出你不是人，乃是九天玄女下凡尘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女客人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大师，你这是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大师：我乃夏朔道长，平日云游四海，你有如此机缘，今日就渡你一渡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>话至于此，已道破天机，意思意思，我这可不是要钱，这是给你结福报的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诶，你有男朋友吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有的话，想不想有一个？有的话，想不想换一个？不换的话，介不介意多一个？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这位美丽可爱的小姐可以做我女朋友吗？如果今天不行，那我过两天再问一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我儿子喜欢你好久了，他想让你做他的妈妈=如果你愿意的话，我可以安排你们，在10个月后见面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1710,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1994,6 +2938,38 @@
         <v>57</v>
       </c>
     </row>
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2004,10 +2980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2102,6 +3078,148 @@
       </c>
       <c r="B11" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/humor/humor.xlsx
+++ b/humor/humor.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="撩妹" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1409,6 +1409,821 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>天气预报，今夜到明天上午，有点想你，预计下午转为持续想你，受此低情绪影响，傍晚将转为大到爆想，心情降低五度，预计此类天气，将持续到见你为止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：你帮我杀了她</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：女人最动人之处，就是可以对爱过的男人，恨到不能自拔。可是，你真想他死吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：不惜任何代价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸：你居然考了61分=女儿：爸，其实…=爸爸:不用考70=女儿:你听我说=爸爸：啥也不用说=女儿:哎呀，又整这出=爸爸：爸=女儿:哎呀，这又联系我爷爷了=爸爸：爸爸！你看见了吗？咱们老猪家要出状元了，你大孙子佩奇他终于及格了=女儿:爷爷，您先把情绪往回收一收，我是你孙子佩奇，你儿子麦当劳把试卷拿反了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：分手吧，渣男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>别闹了，莉莉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：我不叫莉莉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：啊，别闹了，琪琪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：我也不叫琪琪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：妮妮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：我叫雪梨，这次真的完了，再见了卢卡斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：我不叫卢卡斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：哦，再见吧，路易斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：我也不叫路易斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>what</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？杰瑞，凯文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：滚</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一世，我为你挡了一箭，你说来生娶我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：第一世，我平息战乱，你却不知我此后孤独终生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：第二世，我等了你半生，你却娶了别人家姑娘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：第二世，你不知，我觉得那姑娘笑起来像你，我以为那是你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：第三世，我，你高攀不起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：第三世，这一世，我等你一生，你却化身成魔，罢了，这三世，终究只是孽缘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌唱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女儿：我的妈妈扇我一巴掌，说我一在家就闲得慌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>妈妈：难怪成绩一直往下降，没个人样还整天去浪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女儿：我的老师针对我拖堂，说我学会早恋不像样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师：等你上了大学就解放，我为你着想</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌唱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜里突然肚子有点饿，想起了炸鸡，薯条和可乐，某些人还在傍边疯狂打游戏，他装作听不懂，哎哟，我嘴巴失控，口水流动，你居然还敢无动于衷，我看你是吃饱撑着活腻了，还不赶快滚去卖吃的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务员：先生，您好，很高兴为你服务=顾客：来，你跟我说说，你有多高兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐士：修车？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刺客：身为武林中人，你竟然在这里做这种工作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐士：竟然被他知道我的身份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刺客：今晚决战大鸡村山头，谁输谁手，大鸡村只能留下一个修理店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐士：好快的身手，看来今晚又是一场恶战</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大师：我一眼就看出你不是人，乃是九天玄女下凡尘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女客人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大师，你这是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大师：我乃夏朔道长，平日云游四海，你有如此机缘，今日就渡你一渡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>话至于此，已道破天机，意思意思，我这可不是要钱，这是给你结福报的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这位美丽可爱的小姐可以做我女朋友吗？如果今天不行，那我过两天再问一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我儿子喜欢你好久了，他想让你做他的妈妈=如果你愿意的话，我可以安排你们，在10个月后见面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诶，你有男朋友吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有的话，想不想有一个？有的话，想不想换一个？不换的话，介不介意多一个？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1482,71 +2297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天气预报，今夜到明天上午，有点想你，预计下午转为持续想你，受此低情绪影响，傍晚将转为大到爆想，心情降低五度，预计此类天气，将持续到见你为止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想念</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女：你帮我杀了她</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>男：女人最动人之处，就是可以对爱过的男人，恨到不能自拔。可是，你真想他死吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女：不惜任何代价</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爸爸：你居然考了61分=女儿：爸，其实…=爸爸:不用考70=女儿:你听我说=爸爸：啥也不用说=女儿:哎呀，又整这出=爸爸：爸=女儿:哎呀，这又联系我爷爷了=爸爸：爸爸！你看见了吗？咱们老猪家要出状元了，你大孙子佩奇他终于及格了=女儿:爷爷，您先把情绪往回收一收，我是你孙子佩奇，你儿子麦当劳把试卷拿反了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>笑话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1559,27 +2309,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>女：分手吧，渣男</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>男</t>
+      <t>甲</t>
     </r>
     <r>
       <rPr>
@@ -1599,450 +2329,156 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>别闹了，莉莉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女：我不叫莉莉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>男：啊，别闹了，琪琪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女：我也不叫琪琪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>男：妮妮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女：我叫雪梨，这次真的完了，再见了卢卡斯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>男：我不叫卢卡斯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女：哦，再见吧，路易斯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>男：我也不叫路易斯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>what</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？杰瑞，凯文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>男：滚</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第一世，我为你挡了一箭，你说来生娶我</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>男：第一世，我平息战乱，你却不知我此后孤独终生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女：第二世，我等了你半生，你却娶了别人家姑娘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>男：第二世，你不知，我觉得那姑娘笑起来像你，我以为那是你</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女：第三世，我，你高攀不起</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>男：第三世，这一世，我等你一生，你却化身成魔，罢了，这三世，终究只是孽缘</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌唱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女儿：我的妈妈扇我一巴掌，说我一在家就闲得慌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>妈妈：难怪成绩一直往下降，没个人样还整天去浪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女儿：我的老师针对我拖堂，说我学会早恋不像样</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>老师：等你上了大学就解放，我为你着想</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌唱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜里突然肚子有点饿，想起了炸鸡，薯条和可乐，某些人还在傍边疯狂打游戏，他装作听不懂，哎哟，我嘴巴失控，口水流动，你居然还敢无动于衷，我看你是吃饱撑着活腻了，还不赶快滚去卖吃的</t>
+      <t>你问我，你是长颈鹿吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乙：你是长颈鹿吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是长颈鹿啊，你再问我，你是小白兔吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你是小白兔吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你是不是傻，我都说了我是长颈鹿了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好无聊啊，在线等，有没有教我去玩，没有的话，等一下我再问一遍，再没有的话，明天我再问，问到有为止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说说</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2050,258 +2486,160 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务员：先生，您好，很高兴为你服务=顾客：来，你跟我说说，你有多高兴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>隐士：修车？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刺客：身为武林中人，你竟然在这里做这种工作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>隐士：竟然被他知道我的身份</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刺客：今晚决战大鸡村山头，谁输谁手，大鸡村只能留下一个修理店</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>隐士：好快的身手，看来今晚又是一场恶战</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大师：我一眼就看出你不是人，乃是九天玄女下凡尘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女客人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大师，你这是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>…=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大师：我乃夏朔道长，平日云游四海，你有如此机缘，今日就渡你一渡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>……</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>话至于此，已道破天机，意思意思，我这可不是要钱，这是给你结福报的</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>诶，你有男朋友吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有的话，想不想有一个？有的话，想不想换一个？不换的话，介不介意多一个？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这位美丽可爱的小姐可以做我女朋友吗？如果今天不行，那我过两天再问一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我儿子喜欢你好久了，他想让你做他的妈妈=如果你愿意的话，我可以安排你们，在10个月后见面</t>
+    <t>收到了一个好友申请，内容是，哥哥加我，我是妹妹，我当时就拒绝了，并回复一句，我只喜欢少妇，过了几分钟，舅妈打电话来：“你表妹加你想问你几道数学题，你怎么不通过，还说什么，喜欢少妇”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男：呃听说你上大学的时候，有一个男孩子为了你，差点自杀呀 = 女：你在哪听说的啊，没有的事 = 男：你同学说的呀 = 女：没有 = 男：还不承认，人家都说了，宁愿si也不跟你在一块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没胸，你最近又胖了，你脸起皮了，你卡粉了，你闺蜜真好看，你脸和脖子不是一个色的，阿姨你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我找一个不是你，找一个不是你，又找一个还不是你，这么多年上哪去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：小姐姐，我可以抱你吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：不可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：那我可以牵你的手么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：不可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男：那你介意我亲你一下吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女：不介意</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果我有了钱，就买一箱方便面，一下子我就煮三包，再出来个鸡蛋，啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女儿：妈妈，我想看电视 = 妈妈：啥，你想做游戏？ = 女儿：不做游戏看电视 = 妈妈：哦，你想喝蜂蜜？ = 女儿：不喝蜂蜜，看电视 = 妈妈：哦，我知道了，你想背田园诗 = 女儿：哼，不看了，气si我了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女：我们分手吧，全西林 = 男: 我叫全东林 = 女：等一下，我看一下备忘录，对了，你也分 = 男：漂亮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2366,11 +2704,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2444,6 +2787,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2478,6 +2822,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2653,20 +2998,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="200.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2674,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -2682,7 +3027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2690,7 +3035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2698,7 +3043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -2706,7 +3051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -2714,7 +3059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2722,7 +3067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2730,7 +3075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2738,7 +3083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -2746,7 +3091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2754,7 +3099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -2762,7 +3107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2770,7 +3115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2778,7 +3123,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -2786,7 +3131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2794,7 +3139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -2802,7 +3147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -2810,7 +3155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -2818,7 +3163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -2826,7 +3171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2834,7 +3179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2842,7 +3187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2850,7 +3195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2858,7 +3203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2866,7 +3211,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2874,7 +3219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,7 +3227,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2890,7 +3235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -2898,7 +3243,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -2906,7 +3251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
@@ -2914,7 +3259,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -2922,7 +3267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -2930,7 +3275,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -2938,36 +3283,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="5" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2979,20 +3324,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="200.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -3000,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3008,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3016,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3024,7 +3369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3032,7 +3377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3040,7 +3385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3048,7 +3393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3056,7 +3401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -3064,7 +3409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3072,7 +3417,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3080,7 +3425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -3088,7 +3433,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -3096,37 +3441,37 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
@@ -3134,7 +3479,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>70</v>
       </c>
@@ -3142,84 +3487,164 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="5" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="5" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="5" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="3" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="3" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>87</v>
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3230,20 +3655,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="200.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -3251,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -3266,20 +3691,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="200.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -3287,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>

--- a/humor/humor.xlsx
+++ b/humor/humor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="撩妹" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2632,6 +2632,39 @@
   </si>
   <si>
     <t>女：我们分手吧，全西林 = 男: 我叫全东林 = 女：等一下，我看一下备忘录，对了，你也分 = 男：漂亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老虎为什么吃生的食物？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为老虎不会煮饭</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3327,8 +3360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3656,10 +3689,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3684,9 +3717,15 @@
         <v>43</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
